--- a/01_projects/09_moanetunnelen/extracted/p09_QA_workbook.xlsx
+++ b/01_projects/09_moanetunnelen/extracted/p09_QA_workbook.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-14T13:55:09.932240</t>
+          <t>2026-01-15T12:55:22.241214</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1121,6 +1121,7 @@
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1176,10 +1177,15 @@
       </c>
       <c r="K1" s="4" t="inlineStr">
         <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
           <t>QA_Status</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>QA_Notes</t>
         </is>
@@ -1234,6 +1240,7 @@
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1291,7 @@
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1332,8 +1340,13 @@
           <t>SVV Region Sør</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Benyttet som sedimentasjonsbasseng</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1382,8 +1395,13 @@
           <t>SVV Region Sør</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Benyttet som sedimentasjonsbasseng</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1434,6 +1452,7 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1484,6 +1503,7 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1503,7 +1523,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>deponi</t>
+          <t>grøft</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1528,8 +1548,13 @@
           <t>SVV Region Sør</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Benyttet som sedimentasjonsbasseng</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1549,7 +1574,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>deponi</t>
+          <t>grøft</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1574,8 +1599,13 @@
           <t>SVV Region Sør</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Benyttet som sedimentasjonsbasseng</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
